--- a/output/reports/02-network-configs.xlsx
+++ b/output/reports/02-network-configs.xlsx
@@ -9,10 +9,8 @@
   <sheets>
     <sheet name="Summary" sheetId="1" r:id="rId1"/>
     <sheet name="192.168.0.106" sheetId="2" r:id="rId2"/>
-    <sheet name="192.168.0.107" sheetId="3" r:id="rId3"/>
-    <sheet name="192.168.0.108" sheetId="4" r:id="rId4"/>
-    <sheet name="192.168.0.109" sheetId="5" r:id="rId5"/>
-    <sheet name="192.168.0.110" sheetId="6" r:id="rId6"/>
+    <sheet name="192.168.0.109" sheetId="3" r:id="rId3"/>
+    <sheet name="192.168.0.110" sheetId="4" r:id="rId4"/>
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Summary!$A$4:$G$4</definedName>
@@ -22,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="792" uniqueCount="235">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="485" uniqueCount="170">
   <si>
     <t>TCL NETWORK ASSESSMENT - WAN NETWORK DEVICE CONFIGURATION EXTRACTION MODULE</t>
   </si>
@@ -105,7 +103,7 @@
     <t>ROM: 3700 Software (C3725-ADVENTERPRISEK9-M), Version 12.4(15)T7, RELEASE SOFTWARE (fc3)</t>
   </si>
   <si>
-    <t>lab-3725 uptime is 1 hour, 56 minutes</t>
+    <t>lab-3725 uptime is 5 minutes</t>
   </si>
   <si>
     <t>System returned to ROM by unknown reload cause - suspect boot_data[BOOT_COUNT] 0x0, BOOT_COUNT 0, BOOTDATA 19</t>
@@ -324,10 +322,10 @@
     <t>Interface                  IP-Address      OK? Method Status                Protocol</t>
   </si>
   <si>
-    <t>FastEthernet0/0            192.168.0.106   YES manual up                    up</t>
-  </si>
-  <si>
-    <t>FastEthernet0/1            unassigned      YES unset  administratively down down</t>
+    <t>FastEthernet0/0            192.168.0.106   YES NVRAM  up                    up</t>
+  </si>
+  <si>
+    <t>FastEthernet0/1            unassigned      YES NVRAM  administratively down down</t>
   </si>
   <si>
     <t>lab-3725#exit</t>
@@ -336,91 +334,82 @@
     <t>Connection to 192.168.0.106 closed.</t>
   </si>
   <si>
-    <t>192.168.0.107</t>
-  </si>
-  <si>
-    <t>lab-3660</t>
-  </si>
-  <si>
-    <t>DEVICE CONFIGURATION - 192.168.0.107/lab-3660</t>
-  </si>
-  <si>
-    <t>spawn ssh -o KexAlgorithms=+diffie-hellman-group1-sha1 -c aes128-cbc,aes192-cbc,3des-cbc,aes256-ctr,aes192-ctr,aes128-ctr,aes256-cbc -x -l sriram 192.168.0.107</t>
-  </si>
-  <si>
-    <t>lab-3660&gt;enable</t>
-  </si>
-  <si>
-    <t>lab-3660#</t>
-  </si>
-  <si>
-    <t>lab-3660#terminal length 0</t>
-  </si>
-  <si>
-    <t>lab-3660#terminal width 0</t>
-  </si>
-  <si>
-    <t>lab-3660#show version</t>
-  </si>
-  <si>
-    <t>Cisco IOS Software, 3600 Software (C3660-JK9O3S-M), Version 12.4(25d), RELEASE SOFTWARE (fc1)</t>
+    <t>192.168.0.109</t>
+  </si>
+  <si>
+    <t>lab-3745</t>
+  </si>
+  <si>
+    <t>0</t>
+  </si>
+  <si>
+    <t>DEVICE CONFIGURATION - 192.168.0.109/lab-3745</t>
+  </si>
+  <si>
+    <t>spawn ssh -o KexAlgorithms=+diffie-hellman-group1-sha1 -c aes128-cbc,aes192-cbc,3des-cbc,aes256-ctr,aes192-ctr,aes128-ctr,aes256-cbc -x -l sriram 192.168.0.109</t>
+  </si>
+  <si>
+    <t>lab-3745&gt;enable</t>
+  </si>
+  <si>
+    <t>lab-3745#</t>
+  </si>
+  <si>
+    <t>lab-3745#terminal length 0</t>
+  </si>
+  <si>
+    <t>lab-3745#terminal width 0</t>
+  </si>
+  <si>
+    <t>lab-3745#show version</t>
+  </si>
+  <si>
+    <t>Cisco IOS Software, 3700 Software (C3745-ADVIPSERVICESK9-M), Version 12.4(25d), RELEASE SOFTWARE (fc1)</t>
   </si>
   <si>
     <t>Copyright (c) 1986-2010 by Cisco Systems, Inc.</t>
   </si>
   <si>
-    <t>Compiled Wed 18-Aug-10 07:31 by prod_rel_team</t>
-  </si>
-  <si>
-    <t>ROM: 3600 Software (C3660-JK9O3S-M), Version 12.4(25d), RELEASE SOFTWARE (fc1)</t>
-  </si>
-  <si>
-    <t>lab-3660 uptime is 1 hour, 45 minutes</t>
-  </si>
-  <si>
-    <t>Cisco 3660 (R527x) processor (revision 1.0) with 187392K/9216K bytes of memory.</t>
-  </si>
-  <si>
-    <t>R527x CPU at 250MHz, Implementation 40, Rev 1.2, 512KB L2 Cache</t>
-  </si>
-  <si>
-    <t>3660 Chassis type: ENTERPRISE</t>
-  </si>
-  <si>
-    <t>253K bytes of NVRAM.</t>
-  </si>
-  <si>
-    <t>8192K bytes of processor board System flash (Read/Write)</t>
-  </si>
-  <si>
-    <t>lab-3660#show inv</t>
-  </si>
-  <si>
-    <t>NAME: "3660 chassis", DESCR: "3660 chassis"</t>
-  </si>
-  <si>
-    <t>PID:                   , VID: 1.0, SN: FTX0945W0MY</t>
-  </si>
-  <si>
-    <t>NAME: "c3660 Motherboard with Fast Ethernet", DESCR: "c3660 Motherboard with Fast Ethernet"</t>
-  </si>
-  <si>
-    <t>PID: Leopard-2FE       , VID:    , SN: JAB050304T8</t>
-  </si>
-  <si>
-    <t>NAME: "TDM0", DESCR: "TDMSlot"</t>
-  </si>
-  <si>
-    <t>PID: TDMSlot           , VID:    , SN:</t>
-  </si>
-  <si>
-    <t>lab-3660#show run</t>
-  </si>
-  <si>
-    <t>Current configuration : 1045 bytes</t>
-  </si>
-  <si>
-    <t>hostname lab-3660</t>
+    <t>Compiled Wed 18-Aug-10 08:18 by prod_rel_team</t>
+  </si>
+  <si>
+    <t>ROM: 3700 Software (C3745-ADVIPSERVICESK9-M), Version 12.4(25d), RELEASE SOFTWARE (fc1)</t>
+  </si>
+  <si>
+    <t>lab-3745 uptime is 8 minutes</t>
+  </si>
+  <si>
+    <t>Cisco 3745 (R7000) processor (revision 2.0) with 249856K/12288K bytes of memory.</t>
+  </si>
+  <si>
+    <t>R7000 CPU at 350MHz, Implementation 39, Rev 2.1, 256KB L2, 512KB L3 Cache</t>
+  </si>
+  <si>
+    <t>151K bytes of NVRAM.</t>
+  </si>
+  <si>
+    <t>lab-3745#show inv</t>
+  </si>
+  <si>
+    <t>NAME: "3745 chassis", DESCR: "3745 chassis"</t>
+  </si>
+  <si>
+    <t>PID:                   , VID: 2.0, SN: FTX0945W0MY</t>
+  </si>
+  <si>
+    <t>NAME: "c3745 Motherboard with Fast Ethernet", DESCR: "c3745 Motherboard with Fast Ethernet"</t>
+  </si>
+  <si>
+    <t>PID: C3745-2FE         , VID: 2.0, SN: XXXXXXXXXXX</t>
+  </si>
+  <si>
+    <t>lab-3745#show run</t>
+  </si>
+  <si>
+    <t>Current configuration : 1131 bytes</t>
+  </si>
+  <si>
+    <t>hostname lab-3745</t>
   </si>
   <si>
     <t>ip auth-proxy max-nodata-conns 3</t>
@@ -429,262 +418,76 @@
     <t>ip admission max-nodata-conns 3</t>
   </si>
   <si>
-    <t>ip address 192.168.0.107 255.255.255.0</t>
-  </si>
-  <si>
-    <t>lab-3660#show ip int br</t>
-  </si>
-  <si>
-    <t>FastEthernet0/0            192.168.0.107   YES manual up                    up</t>
-  </si>
-  <si>
-    <t>lab-3660#exit</t>
-  </si>
-  <si>
-    <t>Connection to 192.168.0.107 closed by remote host.</t>
-  </si>
-  <si>
-    <t>Connection to 192.168.0.107 closed.</t>
-  </si>
-  <si>
-    <t>192.168.0.108</t>
-  </si>
-  <si>
-    <t>lab-3640</t>
-  </si>
-  <si>
-    <t>DEVICE CONFIGURATION - 192.168.0.108/lab-3640</t>
-  </si>
-  <si>
-    <t>spawn ssh -o KexAlgorithms=+diffie-hellman-group1-sha1 -c aes128-cbc,aes192-cbc,3des-cbc,aes256-ctr,aes192-ctr,aes128-ctr,aes256-cbc -x -l sriram 192.168.0.108</t>
-  </si>
-  <si>
-    <t>sriram@192.168.0.108's password:</t>
-  </si>
-  <si>
-    <t>lab-3640&gt;enable</t>
-  </si>
-  <si>
-    <t>lab-3640#</t>
-  </si>
-  <si>
-    <t>lab-3640#terminal length 0</t>
-  </si>
-  <si>
-    <t>lab-3640#terminal width 0</t>
-  </si>
-  <si>
-    <t>lab-3640#show version</t>
-  </si>
-  <si>
-    <t>Cisco IOS Software, 3600 Software (C3640-IK9O3S-M), Version 12.4(13), RELEASE SOFTWARE (fc1)</t>
+    <t>ip ssh time-out 60</t>
+  </si>
+  <si>
+    <t>ip ssh version 2</t>
+  </si>
+  <si>
+    <t>ip address 192.168.0.109 255.255.255.0</t>
+  </si>
+  <si>
+    <t>full-duplex</t>
+  </si>
+  <si>
+    <t>line vty 5 10</t>
+  </si>
+  <si>
+    <t>lab-3745#show ip int br</t>
+  </si>
+  <si>
+    <t>FastEthernet0/0            192.168.0.109   YES NVRAM  up                    up</t>
+  </si>
+  <si>
+    <t>lab-3745#exit</t>
+  </si>
+  <si>
+    <t>Connection to 192.168.0.109 closed.</t>
+  </si>
+  <si>
+    <t>192.168.0.110</t>
+  </si>
+  <si>
+    <t>lab-2691</t>
+  </si>
+  <si>
+    <t>DEVICE CONFIGURATION - 192.168.0.110/lab-2691</t>
+  </si>
+  <si>
+    <t>spawn ssh -o KexAlgorithms=+diffie-hellman-group1-sha1 -c aes128-cbc,aes192-cbc,3des-cbc,aes256-ctr,aes192-ctr,aes128-ctr,aes256-cbc -x -l sriram 192.168.0.110</t>
+  </si>
+  <si>
+    <t>sriram@192.168.0.110's password:</t>
+  </si>
+  <si>
+    <t>lab-2691&gt;enable</t>
+  </si>
+  <si>
+    <t>lab-2691#</t>
+  </si>
+  <si>
+    <t>lab-2691#terminal length 0</t>
+  </si>
+  <si>
+    <t>lab-2691#terminal width 0</t>
+  </si>
+  <si>
+    <t>lab-2691#show version</t>
+  </si>
+  <si>
+    <t>Cisco IOS Software, 2600 Software (C2691-ENTSERVICESK9-M), Version 12.4(13b), RELEASE SOFTWARE (fc3)</t>
   </si>
   <si>
     <t>Copyright (c) 1986-2007 by Cisco Systems, Inc.</t>
   </si>
   <si>
-    <t>Compiled Thu 22-Feb-07 19:29 by prod_rel_team</t>
-  </si>
-  <si>
-    <t>ROM: 3600 Software (C3640-IK9O3S-M), Version 12.4(13), RELEASE SOFTWARE (fc1)</t>
-  </si>
-  <si>
-    <t>lab-3640 uptime is 57 minutes</t>
-  </si>
-  <si>
-    <t>Cisco 3640 (R4700) processor (revision 0xFF) with 187392K/9216K bytes of memory.</t>
-  </si>
-  <si>
-    <t>Processor board ID FF1045C5</t>
-  </si>
-  <si>
-    <t>R4700 CPU at 100MHz, Implementation 33, Rev 1.2</t>
-  </si>
-  <si>
-    <t>1 FastEthernet interface</t>
-  </si>
-  <si>
-    <t>lab-3640#show inv</t>
-  </si>
-  <si>
-    <t>NAME: "3640 chassis", DESCR: "3640 chassis"</t>
-  </si>
-  <si>
-    <t>PID:                   , VID: 0xFF, SN: FF1045C5</t>
-  </si>
-  <si>
-    <t>NAME: "One port Fastethernet TX", DESCR: "One port Fastethernet TX"</t>
-  </si>
-  <si>
-    <t>PID: NM-1FE-TX=        , VID: 1.0, SN: 7720321</t>
-  </si>
-  <si>
-    <t>lab-3640#show run</t>
-  </si>
-  <si>
-    <t>Current configuration : 881 bytes</t>
-  </si>
-  <si>
-    <t>hostname lab-3640</t>
-  </si>
-  <si>
-    <t>ip address 192.168.0.108 255.255.255.0</t>
-  </si>
-  <si>
-    <t>lab-3640#show ip int br</t>
-  </si>
-  <si>
-    <t>FastEthernet0/0            192.168.0.108   YES NVRAM  up                    up</t>
-  </si>
-  <si>
-    <t>lab-3640#exit</t>
-  </si>
-  <si>
-    <t>Connection to 192.168.0.108 closed.</t>
-  </si>
-  <si>
-    <t>192.168.0.109</t>
-  </si>
-  <si>
-    <t>lab-3745</t>
-  </si>
-  <si>
-    <t>DEVICE CONFIGURATION - 192.168.0.109/lab-3745</t>
-  </si>
-  <si>
-    <t>spawn ssh -o KexAlgorithms=+diffie-hellman-group1-sha1 -c aes128-cbc,aes192-cbc,3des-cbc,aes256-ctr,aes192-ctr,aes128-ctr,aes256-cbc -x -l sriram 192.168.0.109</t>
-  </si>
-  <si>
-    <t>lab-3745&gt;enable</t>
-  </si>
-  <si>
-    <t>lab-3745#</t>
-  </si>
-  <si>
-    <t>lab-3745#terminal length 0</t>
-  </si>
-  <si>
-    <t>lab-3745#terminal width 0</t>
-  </si>
-  <si>
-    <t>lab-3745#show version</t>
-  </si>
-  <si>
-    <t>Cisco IOS Software, 3700 Software (C3745-ADVIPSERVICESK9-M), Version 12.4(25d), RELEASE SOFTWARE (fc1)</t>
-  </si>
-  <si>
-    <t>Compiled Wed 18-Aug-10 08:18 by prod_rel_team</t>
-  </si>
-  <si>
-    <t>ROM: 3700 Software (C3745-ADVIPSERVICESK9-M), Version 12.4(25d), RELEASE SOFTWARE (fc1)</t>
-  </si>
-  <si>
-    <t>lab-3745 uptime is 1 hour, 2 minutes</t>
-  </si>
-  <si>
-    <t>Cisco 3745 (R7000) processor (revision 2.0) with 249856K/12288K bytes of memory.</t>
-  </si>
-  <si>
-    <t>R7000 CPU at 350MHz, Implementation 39, Rev 2.1, 256KB L2, 512KB L3 Cache</t>
-  </si>
-  <si>
-    <t>151K bytes of NVRAM.</t>
-  </si>
-  <si>
-    <t>lab-3745#show inv</t>
-  </si>
-  <si>
-    <t>NAME: "3745 chassis", DESCR: "3745 chassis"</t>
-  </si>
-  <si>
-    <t>PID:                   , VID: 2.0, SN: FTX0945W0MY</t>
-  </si>
-  <si>
-    <t>NAME: "c3745 Motherboard with Fast Ethernet", DESCR: "c3745 Motherboard with Fast Ethernet"</t>
-  </si>
-  <si>
-    <t>PID: C3745-2FE         , VID: 2.0, SN: XXXXXXXXXXX</t>
-  </si>
-  <si>
-    <t>lab-3745#show run</t>
-  </si>
-  <si>
-    <t>Current configuration : 1131 bytes</t>
-  </si>
-  <si>
-    <t>hostname lab-3745</t>
-  </si>
-  <si>
-    <t>ip ssh time-out 60</t>
-  </si>
-  <si>
-    <t>ip ssh version 2</t>
-  </si>
-  <si>
-    <t>ip address 192.168.0.109 255.255.255.0</t>
-  </si>
-  <si>
-    <t>full-duplex</t>
-  </si>
-  <si>
-    <t>line vty 5 10</t>
-  </si>
-  <si>
-    <t>lab-3745#show ip int br</t>
-  </si>
-  <si>
-    <t>FastEthernet0/0            192.168.0.109   YES NVRAM  up                    up</t>
-  </si>
-  <si>
-    <t>FastEthernet0/1            unassigned      YES NVRAM  administratively down down</t>
-  </si>
-  <si>
-    <t>lab-3745#exit</t>
-  </si>
-  <si>
-    <t>Connection to 192.168.0.109 closed.</t>
-  </si>
-  <si>
-    <t>192.168.0.110</t>
-  </si>
-  <si>
-    <t>lab-2691</t>
-  </si>
-  <si>
-    <t>DEVICE CONFIGURATION - 192.168.0.110/lab-2691</t>
-  </si>
-  <si>
-    <t>spawn ssh -o KexAlgorithms=+diffie-hellman-group1-sha1 -c aes128-cbc,aes192-cbc,3des-cbc,aes256-ctr,aes192-ctr,aes128-ctr,aes256-cbc -x -l sriram 192.168.0.110</t>
-  </si>
-  <si>
-    <t>sriram@192.168.0.110's password:</t>
-  </si>
-  <si>
-    <t>lab-2691&gt;enable</t>
-  </si>
-  <si>
-    <t>lab-2691#</t>
-  </si>
-  <si>
-    <t>lab-2691#terminal length 0</t>
-  </si>
-  <si>
-    <t>lab-2691#terminal width 0</t>
-  </si>
-  <si>
-    <t>lab-2691#show version</t>
-  </si>
-  <si>
-    <t>Cisco IOS Software, 2600 Software (C2691-ENTSERVICESK9-M), Version 12.4(13b), RELEASE SOFTWARE (fc3)</t>
-  </si>
-  <si>
     <t>Compiled Tue 24-Apr-07 15:33 by prod_rel_team</t>
   </si>
   <si>
     <t>ROM: 2600 Software (C2691-ENTSERVICESK9-M), Version 12.4(13b), RELEASE SOFTWARE (fc3)</t>
   </si>
   <si>
-    <t>lab-2691 uptime is 34 minutes</t>
+    <t>lab-2691 uptime is 6 hours, 41 minutes</t>
   </si>
   <si>
     <t>Cisco 2691 (R7000) processor (revision 0.1) with 187392K/9216K bytes of memory.</t>
@@ -720,7 +523,7 @@
     <t>lab-2691#show ip int br</t>
   </si>
   <si>
-    <t>FastEthernet0/0            192.168.0.110   YES manual up                    up</t>
+    <t>FastEthernet0/0            192.168.0.110   YES NVRAM  up                    up</t>
   </si>
   <si>
     <t>lab-2691#exit</t>
@@ -1122,7 +925,7 @@
   <sheetPr>
     <tabColor rgb="FF808080"/>
   </sheetPr>
-  <dimension ref="A1:G9"/>
+  <dimension ref="A1:G7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="4" topLeftCell="A5" activePane="bottomLeft" state="frozen"/>
@@ -1213,7 +1016,7 @@
         <v>10</v>
       </c>
       <c r="G6" s="3" t="s">
-        <v>11</v>
+        <v>106</v>
       </c>
     </row>
     <row r="7" spans="1:7">
@@ -1236,52 +1039,6 @@
         <v>10</v>
       </c>
       <c r="G7" s="3" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="8" spans="1:7">
-      <c r="A8" s="3">
-        <v>4</v>
-      </c>
-      <c r="B8" s="3" t="s">
-        <v>173</v>
-      </c>
-      <c r="C8" s="3" t="s">
-        <v>174</v>
-      </c>
-      <c r="D8" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="E8" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="F8" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="G8" s="3" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="9" spans="1:7">
-      <c r="A9" s="3">
-        <v>5</v>
-      </c>
-      <c r="B9" s="3" t="s">
-        <v>207</v>
-      </c>
-      <c r="C9" s="3" t="s">
-        <v>208</v>
-      </c>
-      <c r="D9" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="E9" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="F9" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="G9" s="3" t="s">
         <v>11</v>
       </c>
     </row>
@@ -1297,30 +1054,18 @@
     <hyperlink ref="E5" location="'192.168.0.106'!A3" display="YES"/>
     <hyperlink ref="F5" location="'192.168.0.106'!A3" display="YES"/>
     <hyperlink ref="G5" location="'192.168.0.106'!A3" display="1"/>
-    <hyperlink ref="B6" location="'192.168.0.107'!A3" display="192.168.0.107"/>
-    <hyperlink ref="C6" location="'192.168.0.107'!A3" display="lab-3660"/>
-    <hyperlink ref="D6" location="'192.168.0.107'!A3" display="YES"/>
-    <hyperlink ref="E6" location="'192.168.0.107'!A3" display="YES"/>
-    <hyperlink ref="F6" location="'192.168.0.107'!A3" display="YES"/>
-    <hyperlink ref="G6" location="'192.168.0.107'!A3" display="1"/>
-    <hyperlink ref="B7" location="'192.168.0.108'!A3" display="192.168.0.108"/>
-    <hyperlink ref="C7" location="'192.168.0.108'!A3" display="lab-3640"/>
-    <hyperlink ref="D7" location="'192.168.0.108'!A3" display="YES"/>
-    <hyperlink ref="E7" location="'192.168.0.108'!A3" display="YES"/>
-    <hyperlink ref="F7" location="'192.168.0.108'!A3" display="YES"/>
-    <hyperlink ref="G7" location="'192.168.0.108'!A3" display="1"/>
-    <hyperlink ref="B8" location="'192.168.0.109'!A3" display="192.168.0.109"/>
-    <hyperlink ref="C8" location="'192.168.0.109'!A3" display="lab-3745"/>
-    <hyperlink ref="D8" location="'192.168.0.109'!A3" display="YES"/>
-    <hyperlink ref="E8" location="'192.168.0.109'!A3" display="YES"/>
-    <hyperlink ref="F8" location="'192.168.0.109'!A3" display="YES"/>
-    <hyperlink ref="G8" location="'192.168.0.109'!A3" display="1"/>
-    <hyperlink ref="B9" location="'192.168.0.110'!A3" display="192.168.0.110"/>
-    <hyperlink ref="C9" location="'192.168.0.110'!A3" display="lab-2691"/>
-    <hyperlink ref="D9" location="'192.168.0.110'!A3" display="YES"/>
-    <hyperlink ref="E9" location="'192.168.0.110'!A3" display="YES"/>
-    <hyperlink ref="F9" location="'192.168.0.110'!A3" display="YES"/>
-    <hyperlink ref="G9" location="'192.168.0.110'!A3" display="1"/>
+    <hyperlink ref="B6" location="'192.168.0.109'!A3" display="192.168.0.109"/>
+    <hyperlink ref="C6" location="'192.168.0.109'!A3" display="lab-3745"/>
+    <hyperlink ref="D6" location="'192.168.0.109'!A3" display="YES"/>
+    <hyperlink ref="E6" location="'192.168.0.109'!A3" display="YES"/>
+    <hyperlink ref="F6" location="'192.168.0.109'!A3" display="YES"/>
+    <hyperlink ref="G6" location="'192.168.0.109'!A3" display="0"/>
+    <hyperlink ref="B7" location="'192.168.0.110'!A3" display="192.168.0.110"/>
+    <hyperlink ref="C7" location="'192.168.0.110'!A3" display="lab-2691"/>
+    <hyperlink ref="D7" location="'192.168.0.110'!A3" display="YES"/>
+    <hyperlink ref="E7" location="'192.168.0.110'!A3" display="YES"/>
+    <hyperlink ref="F7" location="'192.168.0.110'!A3" display="YES"/>
+    <hyperlink ref="G7" location="'192.168.0.110'!A3" display="1"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -2224,7 +1969,7 @@
   <sheetPr>
     <tabColor rgb="FF008000"/>
   </sheetPr>
-  <dimension ref="A2:U174"/>
+  <dimension ref="A2:U172"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -2240,7 +1985,7 @@
     </row>
     <row r="3" spans="1:21">
       <c r="A3" s="1" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="B3" s="1"/>
       <c r="C3" s="1"/>
@@ -2270,7 +2015,7 @@
     </row>
     <row r="6" spans="1:21">
       <c r="A6" s="5" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
     </row>
     <row r="7" spans="1:21">
@@ -2283,7 +2028,7 @@
     </row>
     <row r="9" spans="1:21">
       <c r="A9" s="5" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
     </row>
     <row r="10" spans="1:21">
@@ -2293,27 +2038,27 @@
     </row>
     <row r="11" spans="1:21">
       <c r="A11" s="5" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
     </row>
     <row r="12" spans="1:21">
       <c r="A12" s="5" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
     </row>
     <row r="13" spans="1:21">
       <c r="A13" s="5" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
     </row>
     <row r="14" spans="1:21">
       <c r="A14" s="5" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
     </row>
     <row r="15" spans="1:21">
       <c r="A15" s="5" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
     </row>
     <row r="16" spans="1:21">
@@ -2323,12 +2068,12 @@
     </row>
     <row r="17" spans="1:1">
       <c r="A17" s="5" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
     </row>
     <row r="18" spans="1:1">
       <c r="A18" s="5" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
     </row>
     <row r="19" spans="1:1">
@@ -2341,7 +2086,7 @@
     </row>
     <row r="21" spans="1:1">
       <c r="A21" s="5" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
     </row>
     <row r="22" spans="1:1">
@@ -2349,7 +2094,7 @@
     </row>
     <row r="23" spans="1:1">
       <c r="A23" s="5" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
     </row>
     <row r="24" spans="1:1">
@@ -2439,7 +2184,7 @@
     </row>
     <row r="43" spans="1:1">
       <c r="A43" s="5" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
     </row>
     <row r="44" spans="1:1">
@@ -2449,34 +2194,34 @@
     </row>
     <row r="45" spans="1:1">
       <c r="A45" s="5" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
     </row>
     <row r="46" spans="1:1">
-      <c r="A46" s="5"/>
+      <c r="A46" s="5" t="s">
+        <v>45</v>
+      </c>
     </row>
     <row r="47" spans="1:1">
-      <c r="A47" s="5"/>
+      <c r="A47" s="5" t="s">
+        <v>46</v>
+      </c>
     </row>
     <row r="48" spans="1:1">
       <c r="A48" s="5" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
     </row>
     <row r="49" spans="1:1">
-      <c r="A49" s="5" t="s">
-        <v>45</v>
-      </c>
+      <c r="A49" s="5"/>
     </row>
     <row r="50" spans="1:1">
       <c r="A50" s="5" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
     </row>
     <row r="51" spans="1:1">
-      <c r="A51" s="5" t="s">
-        <v>121</v>
-      </c>
+      <c r="A51" s="5"/>
     </row>
     <row r="52" spans="1:1">
       <c r="A52" s="5" t="s">
@@ -2484,11 +2229,13 @@
       </c>
     </row>
     <row r="53" spans="1:1">
-      <c r="A53" s="5"/>
+      <c r="A53" s="5" t="s">
+        <v>123</v>
+      </c>
     </row>
     <row r="54" spans="1:1">
       <c r="A54" s="5" t="s">
-        <v>48</v>
+        <v>124</v>
       </c>
     </row>
     <row r="55" spans="1:1">
@@ -2496,30 +2243,28 @@
     </row>
     <row r="56" spans="1:1">
       <c r="A56" s="5" t="s">
-        <v>123</v>
+        <v>125</v>
       </c>
     </row>
     <row r="57" spans="1:1">
       <c r="A57" s="5" t="s">
-        <v>124</v>
+        <v>126</v>
       </c>
     </row>
     <row r="58" spans="1:1">
-      <c r="A58" s="5" t="s">
-        <v>125</v>
-      </c>
+      <c r="A58" s="5"/>
     </row>
     <row r="59" spans="1:1">
       <c r="A59" s="5"/>
     </row>
     <row r="60" spans="1:1">
       <c r="A60" s="5" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
     </row>
     <row r="61" spans="1:1">
       <c r="A61" s="5" t="s">
-        <v>127</v>
+        <v>53</v>
       </c>
     </row>
     <row r="62" spans="1:1">
@@ -2532,31 +2277,37 @@
     </row>
     <row r="64" spans="1:1">
       <c r="A64" s="5" t="s">
-        <v>129</v>
+        <v>55</v>
       </c>
     </row>
     <row r="65" spans="1:1">
-      <c r="A65" s="5"/>
+      <c r="A65" s="5" t="s">
+        <v>56</v>
+      </c>
     </row>
     <row r="66" spans="1:1">
-      <c r="A66" s="5"/>
+      <c r="A66" s="5" t="s">
+        <v>57</v>
+      </c>
     </row>
     <row r="67" spans="1:1">
       <c r="A67" s="5" t="s">
-        <v>130</v>
+        <v>58</v>
       </c>
     </row>
     <row r="68" spans="1:1">
       <c r="A68" s="5" t="s">
-        <v>53</v>
+        <v>59</v>
       </c>
     </row>
     <row r="69" spans="1:1">
-      <c r="A69" s="5"/>
+      <c r="A69" s="5" t="s">
+        <v>55</v>
+      </c>
     </row>
     <row r="70" spans="1:1">
       <c r="A70" s="5" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
     </row>
     <row r="71" spans="1:1">
@@ -2566,22 +2317,22 @@
     </row>
     <row r="72" spans="1:1">
       <c r="A72" s="5" t="s">
-        <v>56</v>
+        <v>61</v>
       </c>
     </row>
     <row r="73" spans="1:1">
       <c r="A73" s="5" t="s">
-        <v>57</v>
+        <v>62</v>
       </c>
     </row>
     <row r="74" spans="1:1">
       <c r="A74" s="5" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
     </row>
     <row r="75" spans="1:1">
       <c r="A75" s="5" t="s">
-        <v>59</v>
+        <v>63</v>
       </c>
     </row>
     <row r="76" spans="1:1">
@@ -2591,22 +2342,22 @@
     </row>
     <row r="77" spans="1:1">
       <c r="A77" s="5" t="s">
-        <v>132</v>
+        <v>64</v>
       </c>
     </row>
     <row r="78" spans="1:1">
       <c r="A78" s="5" t="s">
-        <v>55</v>
+        <v>65</v>
       </c>
     </row>
     <row r="79" spans="1:1">
       <c r="A79" s="5" t="s">
-        <v>61</v>
+        <v>66</v>
       </c>
     </row>
     <row r="80" spans="1:1">
       <c r="A80" s="5" t="s">
-        <v>62</v>
+        <v>67</v>
       </c>
     </row>
     <row r="81" spans="1:1">
@@ -2616,7 +2367,7 @@
     </row>
     <row r="82" spans="1:1">
       <c r="A82" s="5" t="s">
-        <v>63</v>
+        <v>55</v>
       </c>
     </row>
     <row r="83" spans="1:1">
@@ -2626,42 +2377,42 @@
     </row>
     <row r="84" spans="1:1">
       <c r="A84" s="5" t="s">
-        <v>64</v>
+        <v>55</v>
       </c>
     </row>
     <row r="85" spans="1:1">
       <c r="A85" s="5" t="s">
-        <v>65</v>
+        <v>68</v>
       </c>
     </row>
     <row r="86" spans="1:1">
       <c r="A86" s="5" t="s">
-        <v>66</v>
+        <v>69</v>
       </c>
     </row>
     <row r="87" spans="1:1">
       <c r="A87" s="5" t="s">
-        <v>55</v>
+        <v>130</v>
       </c>
     </row>
     <row r="88" spans="1:1">
       <c r="A88" s="5" t="s">
-        <v>55</v>
+        <v>131</v>
       </c>
     </row>
     <row r="89" spans="1:1">
       <c r="A89" s="5" t="s">
-        <v>67</v>
+        <v>55</v>
       </c>
     </row>
     <row r="90" spans="1:1">
       <c r="A90" s="5" t="s">
-        <v>68</v>
+        <v>55</v>
       </c>
     </row>
     <row r="91" spans="1:1">
       <c r="A91" s="5" t="s">
-        <v>69</v>
+        <v>55</v>
       </c>
     </row>
     <row r="92" spans="1:1">
@@ -2676,12 +2427,12 @@
     </row>
     <row r="94" spans="1:1">
       <c r="A94" s="5" t="s">
-        <v>133</v>
+        <v>55</v>
       </c>
     </row>
     <row r="95" spans="1:1">
       <c r="A95" s="5" t="s">
-        <v>134</v>
+        <v>55</v>
       </c>
     </row>
     <row r="96" spans="1:1">
@@ -2726,7 +2477,7 @@
     </row>
     <row r="104" spans="1:1">
       <c r="A104" s="5" t="s">
-        <v>55</v>
+        <v>71</v>
       </c>
     </row>
     <row r="105" spans="1:1">
@@ -2741,17 +2492,17 @@
     </row>
     <row r="107" spans="1:1">
       <c r="A107" s="5" t="s">
-        <v>55</v>
+        <v>75</v>
       </c>
     </row>
     <row r="108" spans="1:1">
       <c r="A108" s="5" t="s">
-        <v>55</v>
+        <v>132</v>
       </c>
     </row>
     <row r="109" spans="1:1">
       <c r="A109" s="5" t="s">
-        <v>55</v>
+        <v>133</v>
       </c>
     </row>
     <row r="110" spans="1:1">
@@ -2761,7 +2512,7 @@
     </row>
     <row r="111" spans="1:1">
       <c r="A111" s="5" t="s">
-        <v>71</v>
+        <v>55</v>
       </c>
     </row>
     <row r="112" spans="1:1">
@@ -2776,27 +2527,27 @@
     </row>
     <row r="114" spans="1:1">
       <c r="A114" s="5" t="s">
-        <v>75</v>
+        <v>55</v>
       </c>
     </row>
     <row r="115" spans="1:1">
       <c r="A115" s="5" t="s">
-        <v>55</v>
+        <v>76</v>
       </c>
     </row>
     <row r="116" spans="1:1">
       <c r="A116" s="5" t="s">
-        <v>55</v>
+        <v>134</v>
       </c>
     </row>
     <row r="117" spans="1:1">
       <c r="A117" s="5" t="s">
-        <v>55</v>
+        <v>79</v>
       </c>
     </row>
     <row r="118" spans="1:1">
       <c r="A118" s="5" t="s">
-        <v>55</v>
+        <v>135</v>
       </c>
     </row>
     <row r="119" spans="1:1">
@@ -2806,72 +2557,72 @@
     </row>
     <row r="120" spans="1:1">
       <c r="A120" s="5" t="s">
-        <v>76</v>
+        <v>80</v>
       </c>
     </row>
     <row r="121" spans="1:1">
       <c r="A121" s="5" t="s">
-        <v>135</v>
+        <v>81</v>
       </c>
     </row>
     <row r="122" spans="1:1">
       <c r="A122" s="5" t="s">
-        <v>78</v>
+        <v>82</v>
       </c>
     </row>
     <row r="123" spans="1:1">
       <c r="A123" s="5" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
     </row>
     <row r="124" spans="1:1">
       <c r="A124" s="5" t="s">
-        <v>55</v>
+        <v>79</v>
       </c>
     </row>
     <row r="125" spans="1:1">
       <c r="A125" s="5" t="s">
-        <v>80</v>
+        <v>55</v>
       </c>
     </row>
     <row r="126" spans="1:1">
       <c r="A126" s="5" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
     </row>
     <row r="127" spans="1:1">
       <c r="A127" s="5" t="s">
-        <v>82</v>
+        <v>55</v>
       </c>
     </row>
     <row r="128" spans="1:1">
       <c r="A128" s="5" t="s">
-        <v>78</v>
+        <v>55</v>
       </c>
     </row>
     <row r="129" spans="1:1">
       <c r="A129" s="5" t="s">
-        <v>79</v>
+        <v>84</v>
       </c>
     </row>
     <row r="130" spans="1:1">
       <c r="A130" s="5" t="s">
-        <v>55</v>
+        <v>85</v>
       </c>
     </row>
     <row r="131" spans="1:1">
       <c r="A131" s="5" t="s">
-        <v>84</v>
+        <v>55</v>
       </c>
     </row>
     <row r="132" spans="1:1">
       <c r="A132" s="5" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
     </row>
     <row r="133" spans="1:1">
       <c r="A133" s="5" t="s">
-        <v>83</v>
+        <v>87</v>
       </c>
     </row>
     <row r="134" spans="1:1">
@@ -2891,12 +2642,12 @@
     </row>
     <row r="137" spans="1:1">
       <c r="A137" s="5" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
     </row>
     <row r="138" spans="1:1">
       <c r="A138" s="5" t="s">
-        <v>87</v>
+        <v>55</v>
       </c>
     </row>
     <row r="139" spans="1:1">
@@ -2916,7 +2667,7 @@
     </row>
     <row r="142" spans="1:1">
       <c r="A142" s="5" t="s">
-        <v>88</v>
+        <v>55</v>
       </c>
     </row>
     <row r="143" spans="1:1">
@@ -2946,27 +2697,27 @@
     </row>
     <row r="148" spans="1:1">
       <c r="A148" s="5" t="s">
-        <v>55</v>
+        <v>89</v>
       </c>
     </row>
     <row r="149" spans="1:1">
       <c r="A149" s="5" t="s">
-        <v>55</v>
+        <v>90</v>
       </c>
     </row>
     <row r="150" spans="1:1">
       <c r="A150" s="5" t="s">
-        <v>55</v>
+        <v>91</v>
       </c>
     </row>
     <row r="151" spans="1:1">
       <c r="A151" s="5" t="s">
-        <v>55</v>
+        <v>92</v>
       </c>
     </row>
     <row r="152" spans="1:1">
       <c r="A152" s="5" t="s">
-        <v>89</v>
+        <v>93</v>
       </c>
     </row>
     <row r="153" spans="1:1">
@@ -2986,37 +2737,37 @@
     </row>
     <row r="156" spans="1:1">
       <c r="A156" s="5" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
     </row>
     <row r="157" spans="1:1">
       <c r="A157" s="5" t="s">
-        <v>90</v>
+        <v>95</v>
       </c>
     </row>
     <row r="158" spans="1:1">
       <c r="A158" s="5" t="s">
-        <v>91</v>
+        <v>96</v>
       </c>
     </row>
     <row r="159" spans="1:1">
       <c r="A159" s="5" t="s">
-        <v>92</v>
+        <v>136</v>
       </c>
     </row>
     <row r="160" spans="1:1">
       <c r="A160" s="5" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
     </row>
     <row r="161" spans="1:1">
       <c r="A161" s="5" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
     </row>
     <row r="162" spans="1:1">
       <c r="A162" s="5" t="s">
-        <v>96</v>
+        <v>55</v>
       </c>
     </row>
     <row r="163" spans="1:1">
@@ -3026,54 +2777,44 @@
     </row>
     <row r="164" spans="1:1">
       <c r="A164" s="5" t="s">
-        <v>55</v>
+        <v>97</v>
       </c>
     </row>
     <row r="165" spans="1:1">
-      <c r="A165" s="5" t="s">
-        <v>97</v>
-      </c>
+      <c r="A165" s="5"/>
     </row>
     <row r="166" spans="1:1">
-      <c r="A166" s="5"/>
+      <c r="A166" s="5" t="s">
+        <v>137</v>
+      </c>
     </row>
     <row r="167" spans="1:1">
       <c r="A167" s="5" t="s">
-        <v>136</v>
+        <v>99</v>
       </c>
     </row>
     <row r="168" spans="1:1">
       <c r="A168" s="5" t="s">
-        <v>99</v>
+        <v>138</v>
       </c>
     </row>
     <row r="169" spans="1:1">
       <c r="A169" s="5" t="s">
-        <v>137</v>
+        <v>101</v>
       </c>
     </row>
     <row r="170" spans="1:1">
       <c r="A170" s="5" t="s">
-        <v>101</v>
+        <v>110</v>
       </c>
     </row>
     <row r="171" spans="1:1">
       <c r="A171" s="5" t="s">
-        <v>109</v>
+        <v>139</v>
       </c>
     </row>
     <row r="172" spans="1:1">
       <c r="A172" s="5" t="s">
-        <v>138</v>
-      </c>
-    </row>
-    <row r="173" spans="1:1">
-      <c r="A173" s="5" t="s">
-        <v>139</v>
-      </c>
-    </row>
-    <row r="174" spans="1:1">
-      <c r="A174" s="5" t="s">
         <v>140</v>
       </c>
     </row>
@@ -3094,7 +2835,7 @@
   <sheetPr>
     <tabColor rgb="FF008000"/>
   </sheetPr>
-  <dimension ref="A2:U158"/>
+  <dimension ref="A2:U159"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -3324,7 +3065,7 @@
     </row>
     <row r="46" spans="1:1">
       <c r="A46" s="5" t="s">
-        <v>159</v>
+        <v>45</v>
       </c>
     </row>
     <row r="47" spans="1:1">
@@ -3334,24 +3075,24 @@
     </row>
     <row r="48" spans="1:1">
       <c r="A48" s="5" t="s">
-        <v>121</v>
+        <v>47</v>
       </c>
     </row>
     <row r="49" spans="1:1">
-      <c r="A49" s="5" t="s">
-        <v>122</v>
-      </c>
+      <c r="A49" s="5"/>
     </row>
     <row r="50" spans="1:1">
-      <c r="A50" s="5"/>
+      <c r="A50" s="5" t="s">
+        <v>48</v>
+      </c>
     </row>
     <row r="51" spans="1:1">
-      <c r="A51" s="5" t="s">
-        <v>48</v>
-      </c>
+      <c r="A51" s="5"/>
     </row>
     <row r="52" spans="1:1">
-      <c r="A52" s="5"/>
+      <c r="A52" s="5" t="s">
+        <v>159</v>
+      </c>
     </row>
     <row r="53" spans="1:1">
       <c r="A53" s="5" t="s">
@@ -3364,125 +3105,127 @@
       </c>
     </row>
     <row r="55" spans="1:1">
-      <c r="A55" s="5" t="s">
-        <v>162</v>
-      </c>
+      <c r="A55" s="5"/>
     </row>
     <row r="56" spans="1:1">
       <c r="A56" s="5"/>
     </row>
     <row r="57" spans="1:1">
       <c r="A57" s="5" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
     </row>
     <row r="58" spans="1:1">
       <c r="A58" s="5" t="s">
-        <v>164</v>
+        <v>53</v>
       </c>
     </row>
     <row r="59" spans="1:1">
       <c r="A59" s="5"/>
     </row>
     <row r="60" spans="1:1">
-      <c r="A60" s="5"/>
+      <c r="A60" s="5" t="s">
+        <v>163</v>
+      </c>
     </row>
     <row r="61" spans="1:1">
       <c r="A61" s="5" t="s">
-        <v>165</v>
+        <v>55</v>
       </c>
     </row>
     <row r="62" spans="1:1">
       <c r="A62" s="5" t="s">
-        <v>53</v>
+        <v>56</v>
       </c>
     </row>
     <row r="63" spans="1:1">
-      <c r="A63" s="5"/>
+      <c r="A63" s="5" t="s">
+        <v>57</v>
+      </c>
     </row>
     <row r="64" spans="1:1">
       <c r="A64" s="5" t="s">
-        <v>166</v>
+        <v>58</v>
       </c>
     </row>
     <row r="65" spans="1:1">
       <c r="A65" s="5" t="s">
-        <v>55</v>
+        <v>59</v>
       </c>
     </row>
     <row r="66" spans="1:1">
       <c r="A66" s="5" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
     </row>
     <row r="67" spans="1:1">
       <c r="A67" s="5" t="s">
-        <v>57</v>
+        <v>164</v>
       </c>
     </row>
     <row r="68" spans="1:1">
       <c r="A68" s="5" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
     </row>
     <row r="69" spans="1:1">
       <c r="A69" s="5" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
     </row>
     <row r="70" spans="1:1">
       <c r="A70" s="5" t="s">
-        <v>55</v>
+        <v>62</v>
       </c>
     </row>
     <row r="71" spans="1:1">
       <c r="A71" s="5" t="s">
-        <v>167</v>
+        <v>55</v>
       </c>
     </row>
     <row r="72" spans="1:1">
       <c r="A72" s="5" t="s">
-        <v>55</v>
+        <v>63</v>
       </c>
     </row>
     <row r="73" spans="1:1">
       <c r="A73" s="5" t="s">
-        <v>61</v>
+        <v>55</v>
       </c>
     </row>
     <row r="74" spans="1:1">
       <c r="A74" s="5" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
     </row>
     <row r="75" spans="1:1">
       <c r="A75" s="5" t="s">
-        <v>55</v>
+        <v>65</v>
       </c>
     </row>
     <row r="76" spans="1:1">
       <c r="A76" s="5" t="s">
-        <v>63</v>
+        <v>66</v>
       </c>
     </row>
     <row r="77" spans="1:1">
       <c r="A77" s="5" t="s">
-        <v>55</v>
+        <v>67</v>
       </c>
     </row>
     <row r="78" spans="1:1">
       <c r="A78" s="5" t="s">
-        <v>64</v>
+        <v>55</v>
       </c>
     </row>
     <row r="79" spans="1:1">
       <c r="A79" s="5" t="s">
-        <v>65</v>
+        <v>55</v>
       </c>
     </row>
     <row r="80" spans="1:1">
       <c r="A80" s="5" t="s">
-        <v>66</v>
+        <v>55</v>
       </c>
     </row>
     <row r="81" spans="1:1">
@@ -3492,22 +3235,22 @@
     </row>
     <row r="82" spans="1:1">
       <c r="A82" s="5" t="s">
-        <v>55</v>
+        <v>68</v>
       </c>
     </row>
     <row r="83" spans="1:1">
       <c r="A83" s="5" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
     </row>
     <row r="84" spans="1:1">
       <c r="A84" s="5" t="s">
-        <v>68</v>
+        <v>55</v>
       </c>
     </row>
     <row r="85" spans="1:1">
       <c r="A85" s="5" t="s">
-        <v>69</v>
+        <v>55</v>
       </c>
     </row>
     <row r="86" spans="1:1">
@@ -3582,7 +3325,7 @@
     </row>
     <row r="100" spans="1:1">
       <c r="A100" s="5" t="s">
-        <v>55</v>
+        <v>71</v>
       </c>
     </row>
     <row r="101" spans="1:1">
@@ -3597,7 +3340,7 @@
     </row>
     <row r="103" spans="1:1">
       <c r="A103" s="5" t="s">
-        <v>71</v>
+        <v>75</v>
       </c>
     </row>
     <row r="104" spans="1:1">
@@ -3612,27 +3355,27 @@
     </row>
     <row r="106" spans="1:1">
       <c r="A106" s="5" t="s">
-        <v>75</v>
+        <v>55</v>
       </c>
     </row>
     <row r="107" spans="1:1">
       <c r="A107" s="5" t="s">
-        <v>55</v>
+        <v>76</v>
       </c>
     </row>
     <row r="108" spans="1:1">
       <c r="A108" s="5" t="s">
-        <v>55</v>
+        <v>165</v>
       </c>
     </row>
     <row r="109" spans="1:1">
       <c r="A109" s="5" t="s">
-        <v>55</v>
+        <v>78</v>
       </c>
     </row>
     <row r="110" spans="1:1">
       <c r="A110" s="5" t="s">
-        <v>55</v>
+        <v>79</v>
       </c>
     </row>
     <row r="111" spans="1:1">
@@ -3642,37 +3385,37 @@
     </row>
     <row r="112" spans="1:1">
       <c r="A112" s="5" t="s">
-        <v>76</v>
+        <v>80</v>
       </c>
     </row>
     <row r="113" spans="1:1">
       <c r="A113" s="5" t="s">
-        <v>168</v>
+        <v>81</v>
       </c>
     </row>
     <row r="114" spans="1:1">
       <c r="A114" s="5" t="s">
-        <v>78</v>
+        <v>82</v>
       </c>
     </row>
     <row r="115" spans="1:1">
       <c r="A115" s="5" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
     </row>
     <row r="116" spans="1:1">
       <c r="A116" s="5" t="s">
-        <v>55</v>
+        <v>79</v>
       </c>
     </row>
     <row r="117" spans="1:1">
       <c r="A117" s="5" t="s">
-        <v>84</v>
+        <v>55</v>
       </c>
     </row>
     <row r="118" spans="1:1">
       <c r="A118" s="5" t="s">
-        <v>85</v>
+        <v>55</v>
       </c>
     </row>
     <row r="119" spans="1:1">
@@ -3682,27 +3425,27 @@
     </row>
     <row r="120" spans="1:1">
       <c r="A120" s="5" t="s">
-        <v>55</v>
+        <v>84</v>
       </c>
     </row>
     <row r="121" spans="1:1">
       <c r="A121" s="5" t="s">
-        <v>55</v>
+        <v>85</v>
       </c>
     </row>
     <row r="122" spans="1:1">
       <c r="A122" s="5" t="s">
-        <v>86</v>
+        <v>55</v>
       </c>
     </row>
     <row r="123" spans="1:1">
       <c r="A123" s="5" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
     </row>
     <row r="124" spans="1:1">
       <c r="A124" s="5" t="s">
-        <v>55</v>
+        <v>87</v>
       </c>
     </row>
     <row r="125" spans="1:1">
@@ -3717,12 +3460,12 @@
     </row>
     <row r="127" spans="1:1">
       <c r="A127" s="5" t="s">
-        <v>88</v>
+        <v>55</v>
       </c>
     </row>
     <row r="128" spans="1:1">
       <c r="A128" s="5" t="s">
-        <v>55</v>
+        <v>88</v>
       </c>
     </row>
     <row r="129" spans="1:1">
@@ -3845,7 +3588,7 @@
     </row>
     <row r="153" spans="1:1">
       <c r="A153" s="5" t="s">
-        <v>169</v>
+        <v>166</v>
       </c>
     </row>
     <row r="154" spans="1:1">
@@ -3855,22 +3598,27 @@
     </row>
     <row r="155" spans="1:1">
       <c r="A155" s="5" t="s">
-        <v>170</v>
+        <v>167</v>
       </c>
     </row>
     <row r="156" spans="1:1">
       <c r="A156" s="5" t="s">
-        <v>147</v>
+        <v>101</v>
       </c>
     </row>
     <row r="157" spans="1:1">
       <c r="A157" s="5" t="s">
-        <v>171</v>
+        <v>147</v>
       </c>
     </row>
     <row r="158" spans="1:1">
       <c r="A158" s="5" t="s">
-        <v>172</v>
+        <v>168</v>
+      </c>
+    </row>
+    <row r="159" spans="1:1">
+      <c r="A159" s="5" t="s">
+        <v>169</v>
       </c>
     </row>
   </sheetData>
@@ -3883,1673 +3631,4 @@
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <sheetPr>
-    <tabColor rgb="FF008000"/>
-  </sheetPr>
-  <dimension ref="A2:U172"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
-  <cols>
-    <col min="10" max="10" width="20.7109375" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="2" spans="1:21">
-      <c r="J2" s="4" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="3" spans="1:21">
-      <c r="A3" s="1" t="s">
-        <v>175</v>
-      </c>
-      <c r="B3" s="1"/>
-      <c r="C3" s="1"/>
-      <c r="D3" s="1"/>
-      <c r="E3" s="1"/>
-      <c r="F3" s="1"/>
-      <c r="G3" s="1"/>
-      <c r="H3" s="1"/>
-      <c r="I3" s="1"/>
-      <c r="J3" s="1"/>
-      <c r="K3" s="1"/>
-      <c r="L3" s="1"/>
-      <c r="M3" s="1"/>
-      <c r="N3" s="1"/>
-      <c r="O3" s="1"/>
-      <c r="P3" s="1"/>
-      <c r="Q3" s="1"/>
-      <c r="R3" s="1"/>
-      <c r="S3" s="1"/>
-      <c r="T3" s="1"/>
-      <c r="U3" s="1"/>
-    </row>
-    <row r="5" spans="1:21">
-      <c r="A5" s="5" t="s">
-        <v>173</v>
-      </c>
-    </row>
-    <row r="6" spans="1:21">
-      <c r="A6" s="5" t="s">
-        <v>176</v>
-      </c>
-    </row>
-    <row r="7" spans="1:21">
-      <c r="A7" s="5" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="8" spans="1:21">
-      <c r="A8" s="5"/>
-    </row>
-    <row r="9" spans="1:21">
-      <c r="A9" s="5" t="s">
-        <v>177</v>
-      </c>
-    </row>
-    <row r="10" spans="1:21">
-      <c r="A10" s="5" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="11" spans="1:21">
-      <c r="A11" s="5" t="s">
-        <v>178</v>
-      </c>
-    </row>
-    <row r="12" spans="1:21">
-      <c r="A12" s="5" t="s">
-        <v>179</v>
-      </c>
-    </row>
-    <row r="13" spans="1:21">
-      <c r="A13" s="5" t="s">
-        <v>180</v>
-      </c>
-    </row>
-    <row r="14" spans="1:21">
-      <c r="A14" s="5" t="s">
-        <v>181</v>
-      </c>
-    </row>
-    <row r="15" spans="1:21">
-      <c r="A15" s="5" t="s">
-        <v>182</v>
-      </c>
-    </row>
-    <row r="16" spans="1:21">
-      <c r="A16" s="5" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="17" spans="1:1">
-      <c r="A17" s="5" t="s">
-        <v>114</v>
-      </c>
-    </row>
-    <row r="18" spans="1:1">
-      <c r="A18" s="5" t="s">
-        <v>183</v>
-      </c>
-    </row>
-    <row r="19" spans="1:1">
-      <c r="A19" s="5"/>
-    </row>
-    <row r="20" spans="1:1">
-      <c r="A20" s="5" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="21" spans="1:1">
-      <c r="A21" s="5" t="s">
-        <v>184</v>
-      </c>
-    </row>
-    <row r="22" spans="1:1">
-      <c r="A22" s="5"/>
-    </row>
-    <row r="23" spans="1:1">
-      <c r="A23" s="5" t="s">
-        <v>185</v>
-      </c>
-    </row>
-    <row r="24" spans="1:1">
-      <c r="A24" s="5" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="25" spans="1:1">
-      <c r="A25" s="5" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="26" spans="1:1">
-      <c r="A26" s="5"/>
-    </row>
-    <row r="27" spans="1:1">
-      <c r="A27" s="5"/>
-    </row>
-    <row r="28" spans="1:1">
-      <c r="A28" s="5" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="29" spans="1:1">
-      <c r="A29" s="5" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="30" spans="1:1">
-      <c r="A30" s="5" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="31" spans="1:1">
-      <c r="A31" s="5" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="32" spans="1:1">
-      <c r="A32" s="5" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="33" spans="1:1">
-      <c r="A33" s="5" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="34" spans="1:1">
-      <c r="A34" s="5" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="35" spans="1:1">
-      <c r="A35" s="5" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="36" spans="1:1">
-      <c r="A36" s="5"/>
-    </row>
-    <row r="37" spans="1:1">
-      <c r="A37" s="5" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="38" spans="1:1">
-      <c r="A38" s="5" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="39" spans="1:1">
-      <c r="A39" s="5"/>
-    </row>
-    <row r="40" spans="1:1">
-      <c r="A40" s="5" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="41" spans="1:1">
-      <c r="A41" s="5" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="42" spans="1:1">
-      <c r="A42" s="5"/>
-    </row>
-    <row r="43" spans="1:1">
-      <c r="A43" s="5" t="s">
-        <v>186</v>
-      </c>
-    </row>
-    <row r="44" spans="1:1">
-      <c r="A44" s="5" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="45" spans="1:1">
-      <c r="A45" s="5" t="s">
-        <v>187</v>
-      </c>
-    </row>
-    <row r="46" spans="1:1">
-      <c r="A46" s="5" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="47" spans="1:1">
-      <c r="A47" s="5" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="48" spans="1:1">
-      <c r="A48" s="5" t="s">
-        <v>188</v>
-      </c>
-    </row>
-    <row r="49" spans="1:1">
-      <c r="A49" s="5"/>
-    </row>
-    <row r="50" spans="1:1">
-      <c r="A50" s="5" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="51" spans="1:1">
-      <c r="A51" s="5"/>
-    </row>
-    <row r="52" spans="1:1">
-      <c r="A52" s="5" t="s">
-        <v>189</v>
-      </c>
-    </row>
-    <row r="53" spans="1:1">
-      <c r="A53" s="5" t="s">
-        <v>190</v>
-      </c>
-    </row>
-    <row r="54" spans="1:1">
-      <c r="A54" s="5" t="s">
-        <v>191</v>
-      </c>
-    </row>
-    <row r="55" spans="1:1">
-      <c r="A55" s="5"/>
-    </row>
-    <row r="56" spans="1:1">
-      <c r="A56" s="5" t="s">
-        <v>192</v>
-      </c>
-    </row>
-    <row r="57" spans="1:1">
-      <c r="A57" s="5" t="s">
-        <v>193</v>
-      </c>
-    </row>
-    <row r="58" spans="1:1">
-      <c r="A58" s="5"/>
-    </row>
-    <row r="59" spans="1:1">
-      <c r="A59" s="5"/>
-    </row>
-    <row r="60" spans="1:1">
-      <c r="A60" s="5" t="s">
-        <v>194</v>
-      </c>
-    </row>
-    <row r="61" spans="1:1">
-      <c r="A61" s="5" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="62" spans="1:1">
-      <c r="A62" s="5"/>
-    </row>
-    <row r="63" spans="1:1">
-      <c r="A63" s="5" t="s">
-        <v>195</v>
-      </c>
-    </row>
-    <row r="64" spans="1:1">
-      <c r="A64" s="5" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="65" spans="1:1">
-      <c r="A65" s="5" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="66" spans="1:1">
-      <c r="A66" s="5" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="67" spans="1:1">
-      <c r="A67" s="5" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="68" spans="1:1">
-      <c r="A68" s="5" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="69" spans="1:1">
-      <c r="A69" s="5" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="70" spans="1:1">
-      <c r="A70" s="5" t="s">
-        <v>196</v>
-      </c>
-    </row>
-    <row r="71" spans="1:1">
-      <c r="A71" s="5" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="72" spans="1:1">
-      <c r="A72" s="5" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="73" spans="1:1">
-      <c r="A73" s="5" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="74" spans="1:1">
-      <c r="A74" s="5" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="75" spans="1:1">
-      <c r="A75" s="5" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="76" spans="1:1">
-      <c r="A76" s="5" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="77" spans="1:1">
-      <c r="A77" s="5" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="78" spans="1:1">
-      <c r="A78" s="5" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="79" spans="1:1">
-      <c r="A79" s="5" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="80" spans="1:1">
-      <c r="A80" s="5" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="81" spans="1:1">
-      <c r="A81" s="5" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="82" spans="1:1">
-      <c r="A82" s="5" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="83" spans="1:1">
-      <c r="A83" s="5" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="84" spans="1:1">
-      <c r="A84" s="5" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="85" spans="1:1">
-      <c r="A85" s="5" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="86" spans="1:1">
-      <c r="A86" s="5" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="87" spans="1:1">
-      <c r="A87" s="5" t="s">
-        <v>133</v>
-      </c>
-    </row>
-    <row r="88" spans="1:1">
-      <c r="A88" s="5" t="s">
-        <v>134</v>
-      </c>
-    </row>
-    <row r="89" spans="1:1">
-      <c r="A89" s="5" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="90" spans="1:1">
-      <c r="A90" s="5" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="91" spans="1:1">
-      <c r="A91" s="5" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="92" spans="1:1">
-      <c r="A92" s="5" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="93" spans="1:1">
-      <c r="A93" s="5" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="94" spans="1:1">
-      <c r="A94" s="5" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="95" spans="1:1">
-      <c r="A95" s="5" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="96" spans="1:1">
-      <c r="A96" s="5" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="97" spans="1:1">
-      <c r="A97" s="5" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="98" spans="1:1">
-      <c r="A98" s="5" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="99" spans="1:1">
-      <c r="A99" s="5" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="100" spans="1:1">
-      <c r="A100" s="5" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="101" spans="1:1">
-      <c r="A101" s="5" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="102" spans="1:1">
-      <c r="A102" s="5" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="103" spans="1:1">
-      <c r="A103" s="5" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="104" spans="1:1">
-      <c r="A104" s="5" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="105" spans="1:1">
-      <c r="A105" s="5" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="106" spans="1:1">
-      <c r="A106" s="5" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="107" spans="1:1">
-      <c r="A107" s="5" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="108" spans="1:1">
-      <c r="A108" s="5" t="s">
-        <v>197</v>
-      </c>
-    </row>
-    <row r="109" spans="1:1">
-      <c r="A109" s="5" t="s">
-        <v>198</v>
-      </c>
-    </row>
-    <row r="110" spans="1:1">
-      <c r="A110" s="5" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="111" spans="1:1">
-      <c r="A111" s="5" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="112" spans="1:1">
-      <c r="A112" s="5" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="113" spans="1:1">
-      <c r="A113" s="5" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="114" spans="1:1">
-      <c r="A114" s="5" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="115" spans="1:1">
-      <c r="A115" s="5" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="116" spans="1:1">
-      <c r="A116" s="5" t="s">
-        <v>199</v>
-      </c>
-    </row>
-    <row r="117" spans="1:1">
-      <c r="A117" s="5" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="118" spans="1:1">
-      <c r="A118" s="5" t="s">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="119" spans="1:1">
-      <c r="A119" s="5" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="120" spans="1:1">
-      <c r="A120" s="5" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="121" spans="1:1">
-      <c r="A121" s="5" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="122" spans="1:1">
-      <c r="A122" s="5" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="123" spans="1:1">
-      <c r="A123" s="5" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="124" spans="1:1">
-      <c r="A124" s="5" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="125" spans="1:1">
-      <c r="A125" s="5" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="126" spans="1:1">
-      <c r="A126" s="5" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="127" spans="1:1">
-      <c r="A127" s="5" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="128" spans="1:1">
-      <c r="A128" s="5" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="129" spans="1:1">
-      <c r="A129" s="5" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="130" spans="1:1">
-      <c r="A130" s="5" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="131" spans="1:1">
-      <c r="A131" s="5" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="132" spans="1:1">
-      <c r="A132" s="5" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="133" spans="1:1">
-      <c r="A133" s="5" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="134" spans="1:1">
-      <c r="A134" s="5" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="135" spans="1:1">
-      <c r="A135" s="5" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="136" spans="1:1">
-      <c r="A136" s="5" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="137" spans="1:1">
-      <c r="A137" s="5" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="138" spans="1:1">
-      <c r="A138" s="5" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="139" spans="1:1">
-      <c r="A139" s="5" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="140" spans="1:1">
-      <c r="A140" s="5" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="141" spans="1:1">
-      <c r="A141" s="5" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="142" spans="1:1">
-      <c r="A142" s="5" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="143" spans="1:1">
-      <c r="A143" s="5" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="144" spans="1:1">
-      <c r="A144" s="5" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="145" spans="1:1">
-      <c r="A145" s="5" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="146" spans="1:1">
-      <c r="A146" s="5" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="147" spans="1:1">
-      <c r="A147" s="5" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="148" spans="1:1">
-      <c r="A148" s="5" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="149" spans="1:1">
-      <c r="A149" s="5" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="150" spans="1:1">
-      <c r="A150" s="5" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="151" spans="1:1">
-      <c r="A151" s="5" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="152" spans="1:1">
-      <c r="A152" s="5" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="153" spans="1:1">
-      <c r="A153" s="5" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="154" spans="1:1">
-      <c r="A154" s="5" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="155" spans="1:1">
-      <c r="A155" s="5" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="156" spans="1:1">
-      <c r="A156" s="5" t="s">
-        <v>94</v>
-      </c>
-    </row>
-    <row r="157" spans="1:1">
-      <c r="A157" s="5" t="s">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="158" spans="1:1">
-      <c r="A158" s="5" t="s">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="159" spans="1:1">
-      <c r="A159" s="5" t="s">
-        <v>201</v>
-      </c>
-    </row>
-    <row r="160" spans="1:1">
-      <c r="A160" s="5" t="s">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="161" spans="1:1">
-      <c r="A161" s="5" t="s">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="162" spans="1:1">
-      <c r="A162" s="5" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="163" spans="1:1">
-      <c r="A163" s="5" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="164" spans="1:1">
-      <c r="A164" s="5" t="s">
-        <v>97</v>
-      </c>
-    </row>
-    <row r="165" spans="1:1">
-      <c r="A165" s="5"/>
-    </row>
-    <row r="166" spans="1:1">
-      <c r="A166" s="5" t="s">
-        <v>202</v>
-      </c>
-    </row>
-    <row r="167" spans="1:1">
-      <c r="A167" s="5" t="s">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="168" spans="1:1">
-      <c r="A168" s="5" t="s">
-        <v>203</v>
-      </c>
-    </row>
-    <row r="169" spans="1:1">
-      <c r="A169" s="5" t="s">
-        <v>204</v>
-      </c>
-    </row>
-    <row r="170" spans="1:1">
-      <c r="A170" s="5" t="s">
-        <v>178</v>
-      </c>
-    </row>
-    <row r="171" spans="1:1">
-      <c r="A171" s="5" t="s">
-        <v>205</v>
-      </c>
-    </row>
-    <row r="172" spans="1:1">
-      <c r="A172" s="5" t="s">
-        <v>206</v>
-      </c>
-    </row>
-  </sheetData>
-  <mergeCells count="1">
-    <mergeCell ref="A3:U3"/>
-  </mergeCells>
-  <hyperlinks>
-    <hyperlink ref="J2" location="'Summary'!B8" display="SUMMARY"/>
-    <hyperlink ref="A38" r:id="rId1"/>
-  </hyperlinks>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <sheetPr>
-    <tabColor rgb="FF008000"/>
-  </sheetPr>
-  <dimension ref="A2:U159"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
-  <cols>
-    <col min="10" max="10" width="20.7109375" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="2" spans="1:21">
-      <c r="J2" s="4" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="3" spans="1:21">
-      <c r="A3" s="1" t="s">
-        <v>209</v>
-      </c>
-      <c r="B3" s="1"/>
-      <c r="C3" s="1"/>
-      <c r="D3" s="1"/>
-      <c r="E3" s="1"/>
-      <c r="F3" s="1"/>
-      <c r="G3" s="1"/>
-      <c r="H3" s="1"/>
-      <c r="I3" s="1"/>
-      <c r="J3" s="1"/>
-      <c r="K3" s="1"/>
-      <c r="L3" s="1"/>
-      <c r="M3" s="1"/>
-      <c r="N3" s="1"/>
-      <c r="O3" s="1"/>
-      <c r="P3" s="1"/>
-      <c r="Q3" s="1"/>
-      <c r="R3" s="1"/>
-      <c r="S3" s="1"/>
-      <c r="T3" s="1"/>
-      <c r="U3" s="1"/>
-    </row>
-    <row r="5" spans="1:21">
-      <c r="A5" s="5" t="s">
-        <v>207</v>
-      </c>
-    </row>
-    <row r="6" spans="1:21">
-      <c r="A6" s="5" t="s">
-        <v>210</v>
-      </c>
-    </row>
-    <row r="7" spans="1:21">
-      <c r="A7" s="5" t="s">
-        <v>211</v>
-      </c>
-    </row>
-    <row r="8" spans="1:21">
-      <c r="A8" s="5"/>
-    </row>
-    <row r="9" spans="1:21">
-      <c r="A9" s="5" t="s">
-        <v>212</v>
-      </c>
-    </row>
-    <row r="10" spans="1:21">
-      <c r="A10" s="5" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="11" spans="1:21">
-      <c r="A11" s="5" t="s">
-        <v>213</v>
-      </c>
-    </row>
-    <row r="12" spans="1:21">
-      <c r="A12" s="5" t="s">
-        <v>214</v>
-      </c>
-    </row>
-    <row r="13" spans="1:21">
-      <c r="A13" s="5" t="s">
-        <v>215</v>
-      </c>
-    </row>
-    <row r="14" spans="1:21">
-      <c r="A14" s="5" t="s">
-        <v>216</v>
-      </c>
-    </row>
-    <row r="15" spans="1:21">
-      <c r="A15" s="5" t="s">
-        <v>217</v>
-      </c>
-    </row>
-    <row r="16" spans="1:21">
-      <c r="A16" s="5" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="17" spans="1:1">
-      <c r="A17" s="5" t="s">
-        <v>152</v>
-      </c>
-    </row>
-    <row r="18" spans="1:1">
-      <c r="A18" s="5" t="s">
-        <v>218</v>
-      </c>
-    </row>
-    <row r="19" spans="1:1">
-      <c r="A19" s="5"/>
-    </row>
-    <row r="20" spans="1:1">
-      <c r="A20" s="5" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="21" spans="1:1">
-      <c r="A21" s="5" t="s">
-        <v>219</v>
-      </c>
-    </row>
-    <row r="22" spans="1:1">
-      <c r="A22" s="5"/>
-    </row>
-    <row r="23" spans="1:1">
-      <c r="A23" s="5" t="s">
-        <v>220</v>
-      </c>
-    </row>
-    <row r="24" spans="1:1">
-      <c r="A24" s="5" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="25" spans="1:1">
-      <c r="A25" s="5" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="26" spans="1:1">
-      <c r="A26" s="5"/>
-    </row>
-    <row r="27" spans="1:1">
-      <c r="A27" s="5"/>
-    </row>
-    <row r="28" spans="1:1">
-      <c r="A28" s="5" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="29" spans="1:1">
-      <c r="A29" s="5" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="30" spans="1:1">
-      <c r="A30" s="5" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="31" spans="1:1">
-      <c r="A31" s="5" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="32" spans="1:1">
-      <c r="A32" s="5" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="33" spans="1:1">
-      <c r="A33" s="5" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="34" spans="1:1">
-      <c r="A34" s="5" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="35" spans="1:1">
-      <c r="A35" s="5" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="36" spans="1:1">
-      <c r="A36" s="5"/>
-    </row>
-    <row r="37" spans="1:1">
-      <c r="A37" s="5" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="38" spans="1:1">
-      <c r="A38" s="5" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="39" spans="1:1">
-      <c r="A39" s="5"/>
-    </row>
-    <row r="40" spans="1:1">
-      <c r="A40" s="5" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="41" spans="1:1">
-      <c r="A41" s="5" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="42" spans="1:1">
-      <c r="A42" s="5"/>
-    </row>
-    <row r="43" spans="1:1">
-      <c r="A43" s="5" t="s">
-        <v>221</v>
-      </c>
-    </row>
-    <row r="44" spans="1:1">
-      <c r="A44" s="5" t="s">
-        <v>222</v>
-      </c>
-    </row>
-    <row r="45" spans="1:1">
-      <c r="A45" s="5" t="s">
-        <v>223</v>
-      </c>
-    </row>
-    <row r="46" spans="1:1">
-      <c r="A46" s="5" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="47" spans="1:1">
-      <c r="A47" s="5" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="48" spans="1:1">
-      <c r="A48" s="5" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="49" spans="1:1">
-      <c r="A49" s="5"/>
-    </row>
-    <row r="50" spans="1:1">
-      <c r="A50" s="5" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="51" spans="1:1">
-      <c r="A51" s="5"/>
-    </row>
-    <row r="52" spans="1:1">
-      <c r="A52" s="5" t="s">
-        <v>224</v>
-      </c>
-    </row>
-    <row r="53" spans="1:1">
-      <c r="A53" s="5" t="s">
-        <v>225</v>
-      </c>
-    </row>
-    <row r="54" spans="1:1">
-      <c r="A54" s="5" t="s">
-        <v>226</v>
-      </c>
-    </row>
-    <row r="55" spans="1:1">
-      <c r="A55" s="5"/>
-    </row>
-    <row r="56" spans="1:1">
-      <c r="A56" s="5"/>
-    </row>
-    <row r="57" spans="1:1">
-      <c r="A57" s="5" t="s">
-        <v>227</v>
-      </c>
-    </row>
-    <row r="58" spans="1:1">
-      <c r="A58" s="5" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="59" spans="1:1">
-      <c r="A59" s="5"/>
-    </row>
-    <row r="60" spans="1:1">
-      <c r="A60" s="5" t="s">
-        <v>228</v>
-      </c>
-    </row>
-    <row r="61" spans="1:1">
-      <c r="A61" s="5" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="62" spans="1:1">
-      <c r="A62" s="5" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="63" spans="1:1">
-      <c r="A63" s="5" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="64" spans="1:1">
-      <c r="A64" s="5" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="65" spans="1:1">
-      <c r="A65" s="5" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="66" spans="1:1">
-      <c r="A66" s="5" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="67" spans="1:1">
-      <c r="A67" s="5" t="s">
-        <v>229</v>
-      </c>
-    </row>
-    <row r="68" spans="1:1">
-      <c r="A68" s="5" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="69" spans="1:1">
-      <c r="A69" s="5" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="70" spans="1:1">
-      <c r="A70" s="5" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="71" spans="1:1">
-      <c r="A71" s="5" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="72" spans="1:1">
-      <c r="A72" s="5" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="73" spans="1:1">
-      <c r="A73" s="5" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="74" spans="1:1">
-      <c r="A74" s="5" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="75" spans="1:1">
-      <c r="A75" s="5" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="76" spans="1:1">
-      <c r="A76" s="5" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="77" spans="1:1">
-      <c r="A77" s="5" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="78" spans="1:1">
-      <c r="A78" s="5" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="79" spans="1:1">
-      <c r="A79" s="5" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="80" spans="1:1">
-      <c r="A80" s="5" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="81" spans="1:1">
-      <c r="A81" s="5" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="82" spans="1:1">
-      <c r="A82" s="5" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="83" spans="1:1">
-      <c r="A83" s="5" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="84" spans="1:1">
-      <c r="A84" s="5" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="85" spans="1:1">
-      <c r="A85" s="5" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="86" spans="1:1">
-      <c r="A86" s="5" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="87" spans="1:1">
-      <c r="A87" s="5" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="88" spans="1:1">
-      <c r="A88" s="5" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="89" spans="1:1">
-      <c r="A89" s="5" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="90" spans="1:1">
-      <c r="A90" s="5" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="91" spans="1:1">
-      <c r="A91" s="5" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="92" spans="1:1">
-      <c r="A92" s="5" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="93" spans="1:1">
-      <c r="A93" s="5" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="94" spans="1:1">
-      <c r="A94" s="5" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="95" spans="1:1">
-      <c r="A95" s="5" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="96" spans="1:1">
-      <c r="A96" s="5" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="97" spans="1:1">
-      <c r="A97" s="5" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="98" spans="1:1">
-      <c r="A98" s="5" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="99" spans="1:1">
-      <c r="A99" s="5" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="100" spans="1:1">
-      <c r="A100" s="5" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="101" spans="1:1">
-      <c r="A101" s="5" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="102" spans="1:1">
-      <c r="A102" s="5" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="103" spans="1:1">
-      <c r="A103" s="5" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="104" spans="1:1">
-      <c r="A104" s="5" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="105" spans="1:1">
-      <c r="A105" s="5" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="106" spans="1:1">
-      <c r="A106" s="5" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="107" spans="1:1">
-      <c r="A107" s="5" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="108" spans="1:1">
-      <c r="A108" s="5" t="s">
-        <v>230</v>
-      </c>
-    </row>
-    <row r="109" spans="1:1">
-      <c r="A109" s="5" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="110" spans="1:1">
-      <c r="A110" s="5" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="111" spans="1:1">
-      <c r="A111" s="5" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="112" spans="1:1">
-      <c r="A112" s="5" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="113" spans="1:1">
-      <c r="A113" s="5" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="114" spans="1:1">
-      <c r="A114" s="5" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="115" spans="1:1">
-      <c r="A115" s="5" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="116" spans="1:1">
-      <c r="A116" s="5" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="117" spans="1:1">
-      <c r="A117" s="5" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="118" spans="1:1">
-      <c r="A118" s="5" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="119" spans="1:1">
-      <c r="A119" s="5" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="120" spans="1:1">
-      <c r="A120" s="5" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="121" spans="1:1">
-      <c r="A121" s="5" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="122" spans="1:1">
-      <c r="A122" s="5" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="123" spans="1:1">
-      <c r="A123" s="5" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="124" spans="1:1">
-      <c r="A124" s="5" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="125" spans="1:1">
-      <c r="A125" s="5" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="126" spans="1:1">
-      <c r="A126" s="5" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="127" spans="1:1">
-      <c r="A127" s="5" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="128" spans="1:1">
-      <c r="A128" s="5" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="129" spans="1:1">
-      <c r="A129" s="5" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="130" spans="1:1">
-      <c r="A130" s="5" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="131" spans="1:1">
-      <c r="A131" s="5" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="132" spans="1:1">
-      <c r="A132" s="5" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="133" spans="1:1">
-      <c r="A133" s="5" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="134" spans="1:1">
-      <c r="A134" s="5" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="135" spans="1:1">
-      <c r="A135" s="5" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="136" spans="1:1">
-      <c r="A136" s="5" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="137" spans="1:1">
-      <c r="A137" s="5" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="138" spans="1:1">
-      <c r="A138" s="5" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="139" spans="1:1">
-      <c r="A139" s="5" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="140" spans="1:1">
-      <c r="A140" s="5" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="141" spans="1:1">
-      <c r="A141" s="5" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="142" spans="1:1">
-      <c r="A142" s="5" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="143" spans="1:1">
-      <c r="A143" s="5" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="144" spans="1:1">
-      <c r="A144" s="5" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="145" spans="1:1">
-      <c r="A145" s="5" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="146" spans="1:1">
-      <c r="A146" s="5" t="s">
-        <v>94</v>
-      </c>
-    </row>
-    <row r="147" spans="1:1">
-      <c r="A147" s="5" t="s">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="148" spans="1:1">
-      <c r="A148" s="5" t="s">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="149" spans="1:1">
-      <c r="A149" s="5" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="150" spans="1:1">
-      <c r="A150" s="5" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="151" spans="1:1">
-      <c r="A151" s="5" t="s">
-        <v>97</v>
-      </c>
-    </row>
-    <row r="152" spans="1:1">
-      <c r="A152" s="5"/>
-    </row>
-    <row r="153" spans="1:1">
-      <c r="A153" s="5" t="s">
-        <v>231</v>
-      </c>
-    </row>
-    <row r="154" spans="1:1">
-      <c r="A154" s="5" t="s">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="155" spans="1:1">
-      <c r="A155" s="5" t="s">
-        <v>232</v>
-      </c>
-    </row>
-    <row r="156" spans="1:1">
-      <c r="A156" s="5" t="s">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="157" spans="1:1">
-      <c r="A157" s="5" t="s">
-        <v>213</v>
-      </c>
-    </row>
-    <row r="158" spans="1:1">
-      <c r="A158" s="5" t="s">
-        <v>233</v>
-      </c>
-    </row>
-    <row r="159" spans="1:1">
-      <c r="A159" s="5" t="s">
-        <v>234</v>
-      </c>
-    </row>
-  </sheetData>
-  <mergeCells count="1">
-    <mergeCell ref="A3:U3"/>
-  </mergeCells>
-  <hyperlinks>
-    <hyperlink ref="J2" location="'Summary'!B9" display="SUMMARY"/>
-    <hyperlink ref="A38" r:id="rId1"/>
-  </hyperlinks>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
 </file>